--- a/data/获取数据/政策导向指标/国企20年数据/688548.xlsx
+++ b/data/获取数据/政策导向指标/国企20年数据/688548.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>广钢气体</t>
   </si>
   <si>
-    <t>688548</t>
-  </si>
-  <si>
     <t>2023-08-15</t>
   </si>
   <si>
@@ -218,6 +242,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>广州市人民政府国有资产监督管理委员会</t>
+  </si>
+  <si>
+    <t>广州工业投资控股集团有限公司</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -575,13 +611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,16 +657,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>688548</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>16.88</v>
@@ -663,2135 +726,2193 @@
         <v>77.84</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>688548</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3">
+        <v>54000</v>
+      </c>
+      <c r="S3">
+        <v>40.92</v>
+      </c>
+      <c r="T3" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V3">
+        <v>99.29005146128615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="N4">
+        <v>688548</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4">
+        <v>54000</v>
+      </c>
+      <c r="S4">
+        <v>40.92</v>
+      </c>
+      <c r="T4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4">
+        <v>99.29005146128615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>688548</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
         <v>12.55</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>11.62</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>12.55</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>11.61</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>1020976</v>
       </c>
-      <c r="I3">
+      <c r="I5">
         <v>1226036814</v>
       </c>
-      <c r="J3">
+      <c r="J5">
         <v>7.15</v>
       </c>
-      <c r="K3">
+      <c r="K5">
         <v>-11.63</v>
       </c>
-      <c r="L3">
+      <c r="L5">
         <v>-1.53</v>
       </c>
-      <c r="M3">
+      <c r="M5">
         <v>41.98</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>688548</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
         <v>11.6</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>11.88</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>12.1</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>11.41</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>633038</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>746889443</v>
       </c>
-      <c r="J4">
+      <c r="J6">
         <v>5.94</v>
       </c>
-      <c r="K4">
+      <c r="K6">
         <v>2.24</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>0.26</v>
       </c>
-      <c r="M4">
+      <c r="M6">
         <v>26.03</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>688548</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
         <v>12.3</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>12.75</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>13.35</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>12.3</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>993431</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>1281417554</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>8.84</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>7.32</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>0.87</v>
       </c>
-      <c r="M5">
+      <c r="M7">
         <v>40.85</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>688548</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
         <v>12.55</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>12.13</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>12.65</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>12.01</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>562450</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>687539809</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>5.02</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <v>-4.86</v>
       </c>
-      <c r="L6">
+      <c r="L8">
         <v>-0.62</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>23.13</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>688548</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
         <v>12.21</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>11.44</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>12.35</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>11.19</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>545307</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>635449362</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <v>9.56</v>
       </c>
-      <c r="K7">
+      <c r="K9">
         <v>-5.69</v>
       </c>
-      <c r="L7">
+      <c r="L9">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="M7">
+      <c r="M9">
         <v>22.42</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>688548</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
         <v>11.38</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>11.02</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>11.61</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>11</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>372741</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>420393436</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>5.33</v>
       </c>
-      <c r="K8">
+      <c r="K10">
         <v>-3.67</v>
       </c>
-      <c r="L8">
+      <c r="L10">
         <v>-0.42</v>
       </c>
-      <c r="M8">
+      <c r="M10">
         <v>15.33</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>688548</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
         <v>11.05</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>10.7</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>11.15</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>10.68</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <v>352291</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>383135505</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>4.26</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <v>-2.9</v>
       </c>
-      <c r="L9">
+      <c r="L11">
         <v>-0.32</v>
       </c>
-      <c r="M9">
+      <c r="M11">
         <v>14.48</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>688548</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
         <v>10.52</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>10.23</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>10.69</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>10.21</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>311058</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>324376815</v>
       </c>
-      <c r="J10">
+      <c r="J12">
         <v>4.49</v>
       </c>
-      <c r="K10">
+      <c r="K12">
         <v>-4.39</v>
       </c>
-      <c r="L10">
+      <c r="L12">
         <v>-0.47</v>
       </c>
-      <c r="M10">
+      <c r="M12">
         <v>12.79</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>688548</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
         <v>10.98</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>10.3</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>11.2</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>10.3</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>441301</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>475445212</v>
       </c>
-      <c r="J11">
+      <c r="J13">
         <v>8.800000000000001</v>
       </c>
-      <c r="K11">
+      <c r="K13">
         <v>0.68</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <v>0.07000000000000001</v>
       </c>
-      <c r="M11">
+      <c r="M13">
         <v>18.14</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>688548</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
         <v>10.36</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>11.71</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>11.85</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>10.3</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <v>628159</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <v>697871884</v>
       </c>
-      <c r="J12">
+      <c r="J14">
         <v>15.05</v>
       </c>
-      <c r="K12">
+      <c r="K14">
         <v>13.69</v>
       </c>
-      <c r="L12">
+      <c r="L14">
         <v>1.41</v>
       </c>
-      <c r="M12">
+      <c r="M14">
         <v>25.83</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>688548</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
         <v>11.73</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>12.29</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>12.98</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>11.65</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <v>663693</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>821946265</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <v>11.36</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>4.95</v>
       </c>
-      <c r="L13">
+      <c r="L15">
         <v>0.58</v>
       </c>
-      <c r="M13">
+      <c r="M15">
         <v>27.29</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>688548</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
         <v>12.17</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>13.16</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>13.28</v>
-      </c>
-      <c r="G14">
-        <v>12.16</v>
-      </c>
-      <c r="H14">
-        <v>657827</v>
-      </c>
-      <c r="I14">
-        <v>843827971</v>
-      </c>
-      <c r="J14">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="K14">
-        <v>7.08</v>
-      </c>
-      <c r="L14">
-        <v>0.87</v>
-      </c>
-      <c r="M14">
-        <v>27.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
-        <v>12.92</v>
-      </c>
-      <c r="E15">
-        <v>12.5</v>
-      </c>
-      <c r="F15">
-        <v>13.4</v>
-      </c>
-      <c r="G15">
-        <v>12.37</v>
-      </c>
-      <c r="H15">
-        <v>487518</v>
-      </c>
-      <c r="I15">
-        <v>622754526</v>
-      </c>
-      <c r="J15">
-        <v>7.83</v>
-      </c>
-      <c r="K15">
-        <v>-5.02</v>
-      </c>
-      <c r="L15">
-        <v>-0.66</v>
-      </c>
-      <c r="M15">
-        <v>20.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>12.39</v>
-      </c>
-      <c r="E16">
-        <v>12.4</v>
-      </c>
-      <c r="F16">
-        <v>12.69</v>
       </c>
       <c r="G16">
         <v>12.16</v>
       </c>
       <c r="H16">
-        <v>290695</v>
+        <v>657827</v>
       </c>
       <c r="I16">
-        <v>360109347</v>
+        <v>843827971</v>
       </c>
       <c r="J16">
-        <v>4.24</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="K16">
-        <v>-0.8</v>
+        <v>7.08</v>
       </c>
       <c r="L16">
-        <v>-0.1</v>
+        <v>0.87</v>
       </c>
       <c r="M16">
-        <v>11.95</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>688548</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>12.48</v>
+        <v>12.92</v>
       </c>
       <c r="E17">
-        <v>12.13</v>
+        <v>12.5</v>
       </c>
       <c r="F17">
-        <v>12.77</v>
+        <v>13.4</v>
       </c>
       <c r="G17">
-        <v>12.12</v>
+        <v>12.37</v>
       </c>
       <c r="H17">
-        <v>300908</v>
+        <v>487518</v>
       </c>
       <c r="I17">
-        <v>371563913</v>
+        <v>622754526</v>
       </c>
       <c r="J17">
-        <v>5.24</v>
+        <v>7.83</v>
       </c>
       <c r="K17">
-        <v>-2.18</v>
+        <v>-5.02</v>
       </c>
       <c r="L17">
-        <v>-0.27</v>
+        <v>-0.66</v>
       </c>
       <c r="M17">
-        <v>12.37</v>
+        <v>20.04</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>688548</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>12.06</v>
+        <v>12.39</v>
       </c>
       <c r="E18">
-        <v>13.68</v>
+        <v>12.4</v>
       </c>
       <c r="F18">
-        <v>14.05</v>
+        <v>12.69</v>
       </c>
       <c r="G18">
-        <v>11.97</v>
+        <v>12.16</v>
       </c>
       <c r="H18">
-        <v>639512</v>
+        <v>290695</v>
       </c>
       <c r="I18">
-        <v>832623412</v>
+        <v>360109347</v>
       </c>
       <c r="J18">
-        <v>17.15</v>
+        <v>4.24</v>
       </c>
       <c r="K18">
-        <v>12.78</v>
+        <v>-0.8</v>
       </c>
       <c r="L18">
-        <v>1.55</v>
+        <v>-0.1</v>
       </c>
       <c r="M18">
-        <v>26.29</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>688548</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>13.6</v>
+        <v>12.48</v>
       </c>
       <c r="E19">
-        <v>12.45</v>
+        <v>12.13</v>
       </c>
       <c r="F19">
-        <v>13.77</v>
+        <v>12.77</v>
       </c>
       <c r="G19">
-        <v>12.38</v>
+        <v>12.12</v>
       </c>
       <c r="H19">
-        <v>502281</v>
+        <v>300908</v>
       </c>
       <c r="I19">
-        <v>656809631</v>
+        <v>371563913</v>
       </c>
       <c r="J19">
-        <v>10.16</v>
+        <v>5.24</v>
       </c>
       <c r="K19">
-        <v>-8.99</v>
+        <v>-2.18</v>
       </c>
       <c r="L19">
-        <v>-1.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M19">
-        <v>20.65</v>
+        <v>12.37</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>688548</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>12.76</v>
+        <v>12.06</v>
       </c>
       <c r="E20">
-        <v>12.82</v>
+        <v>13.68</v>
       </c>
       <c r="F20">
-        <v>13.24</v>
+        <v>14.05</v>
       </c>
       <c r="G20">
-        <v>12.63</v>
+        <v>11.97</v>
       </c>
       <c r="H20">
-        <v>352494</v>
+        <v>639512</v>
       </c>
       <c r="I20">
-        <v>455179151</v>
+        <v>832623412</v>
       </c>
       <c r="J20">
-        <v>4.9</v>
+        <v>17.15</v>
       </c>
       <c r="K20">
-        <v>2.97</v>
+        <v>12.78</v>
       </c>
       <c r="L20">
-        <v>0.37</v>
+        <v>1.55</v>
       </c>
       <c r="M20">
-        <v>14.49</v>
+        <v>26.29</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>688548</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>12.57</v>
+        <v>13.6</v>
       </c>
       <c r="E21">
-        <v>12.29</v>
+        <v>12.45</v>
       </c>
       <c r="F21">
-        <v>12.85</v>
+        <v>13.77</v>
       </c>
       <c r="G21">
-        <v>12.23</v>
+        <v>12.38</v>
       </c>
       <c r="H21">
-        <v>266112</v>
+        <v>502281</v>
       </c>
       <c r="I21">
-        <v>329936509</v>
+        <v>656809631</v>
       </c>
       <c r="J21">
-        <v>4.84</v>
+        <v>10.16</v>
       </c>
       <c r="K21">
-        <v>-4.13</v>
+        <v>-8.99</v>
       </c>
       <c r="L21">
-        <v>-0.53</v>
+        <v>-1.23</v>
       </c>
       <c r="M21">
-        <v>10.94</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>688548</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>12.22</v>
+        <v>12.76</v>
       </c>
       <c r="E22">
-        <v>12.01</v>
+        <v>12.82</v>
       </c>
       <c r="F22">
-        <v>12.27</v>
+        <v>13.24</v>
       </c>
       <c r="G22">
-        <v>11.9</v>
+        <v>12.63</v>
       </c>
       <c r="H22">
-        <v>187312</v>
+        <v>352494</v>
       </c>
       <c r="I22">
-        <v>225460455</v>
+        <v>455179151</v>
       </c>
       <c r="J22">
-        <v>3.01</v>
+        <v>4.9</v>
       </c>
       <c r="K22">
-        <v>-2.28</v>
+        <v>2.97</v>
       </c>
       <c r="L22">
-        <v>-0.28</v>
+        <v>0.37</v>
       </c>
       <c r="M22">
-        <v>7.7</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>688548</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>11.99</v>
+        <v>12.57</v>
       </c>
       <c r="E23">
-        <v>12.02</v>
+        <v>12.29</v>
       </c>
       <c r="F23">
-        <v>12.06</v>
+        <v>12.85</v>
       </c>
       <c r="G23">
-        <v>11.76</v>
+        <v>12.23</v>
       </c>
       <c r="H23">
-        <v>160968</v>
+        <v>266112</v>
       </c>
       <c r="I23">
-        <v>192127931</v>
+        <v>329936509</v>
       </c>
       <c r="J23">
-        <v>2.5</v>
+        <v>4.84</v>
       </c>
       <c r="K23">
-        <v>0.08</v>
+        <v>-4.13</v>
       </c>
       <c r="L23">
-        <v>0.01</v>
+        <v>-0.53</v>
       </c>
       <c r="M23">
-        <v>6.62</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>688548</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>11.97</v>
+        <v>12.22</v>
       </c>
       <c r="E24">
-        <v>11.47</v>
+        <v>12.01</v>
       </c>
       <c r="F24">
-        <v>12.03</v>
+        <v>12.27</v>
       </c>
       <c r="G24">
-        <v>11.34</v>
+        <v>11.9</v>
       </c>
       <c r="H24">
-        <v>180785</v>
+        <v>187312</v>
       </c>
       <c r="I24">
-        <v>209219313</v>
+        <v>225460455</v>
       </c>
       <c r="J24">
-        <v>5.74</v>
+        <v>3.01</v>
       </c>
       <c r="K24">
-        <v>-4.58</v>
+        <v>-2.28</v>
       </c>
       <c r="L24">
-        <v>-0.55</v>
+        <v>-0.28</v>
       </c>
       <c r="M24">
-        <v>7.43</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>688548</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D25">
-        <v>11.56</v>
+        <v>11.99</v>
       </c>
       <c r="E25">
-        <v>11.7</v>
+        <v>12.02</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>12.06</v>
       </c>
       <c r="G25">
-        <v>11.4</v>
+        <v>11.76</v>
       </c>
       <c r="H25">
-        <v>179983</v>
+        <v>160968</v>
       </c>
       <c r="I25">
-        <v>210353623</v>
+        <v>192127931</v>
       </c>
       <c r="J25">
-        <v>5.23</v>
+        <v>2.5</v>
       </c>
       <c r="K25">
-        <v>2.01</v>
+        <v>0.08</v>
       </c>
       <c r="L25">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="M25">
-        <v>7.4</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>688548</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>11.59</v>
+        <v>11.97</v>
       </c>
       <c r="E26">
-        <v>11.98</v>
+        <v>11.47</v>
       </c>
       <c r="F26">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="G26">
-        <v>11.5</v>
+        <v>11.34</v>
       </c>
       <c r="H26">
-        <v>174892</v>
+        <v>180785</v>
       </c>
       <c r="I26">
-        <v>208111634</v>
+        <v>209219313</v>
       </c>
       <c r="J26">
-        <v>5.38</v>
+        <v>5.74</v>
       </c>
       <c r="K26">
-        <v>2.39</v>
+        <v>-4.58</v>
       </c>
       <c r="L26">
-        <v>0.28</v>
+        <v>-0.55</v>
       </c>
       <c r="M26">
-        <v>7.19</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>688548</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D27">
-        <v>11.95</v>
+        <v>11.56</v>
       </c>
       <c r="E27">
-        <v>11.94</v>
+        <v>11.7</v>
       </c>
       <c r="F27">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>11.57</v>
+        <v>11.4</v>
       </c>
       <c r="H27">
-        <v>147928</v>
+        <v>179983</v>
       </c>
       <c r="I27">
-        <v>175345431</v>
+        <v>210353623</v>
       </c>
       <c r="J27">
-        <v>4.42</v>
+        <v>5.23</v>
       </c>
       <c r="K27">
-        <v>-0.33</v>
+        <v>2.01</v>
       </c>
       <c r="L27">
-        <v>-0.04</v>
+        <v>0.23</v>
       </c>
       <c r="M27">
-        <v>6.08</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>688548</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>11.86</v>
+        <v>11.59</v>
       </c>
       <c r="E28">
-        <v>11.65</v>
+        <v>11.98</v>
       </c>
       <c r="F28">
-        <v>11.97</v>
+        <v>12.13</v>
       </c>
       <c r="G28">
-        <v>11.58</v>
+        <v>11.5</v>
       </c>
       <c r="H28">
-        <v>136980</v>
+        <v>174892</v>
       </c>
       <c r="I28">
-        <v>161136753</v>
+        <v>208111634</v>
       </c>
       <c r="J28">
-        <v>3.27</v>
+        <v>5.38</v>
       </c>
       <c r="K28">
-        <v>-2.43</v>
+        <v>2.39</v>
       </c>
       <c r="L28">
-        <v>-0.29</v>
+        <v>0.28</v>
       </c>
       <c r="M28">
-        <v>5.63</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>688548</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>11.8</v>
+        <v>11.95</v>
       </c>
       <c r="E29">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="F29">
-        <v>12.05</v>
+        <v>12.1</v>
       </c>
       <c r="G29">
-        <v>11.64</v>
+        <v>11.57</v>
       </c>
       <c r="H29">
-        <v>197553</v>
+        <v>147928</v>
       </c>
       <c r="I29">
-        <v>234636643</v>
+        <v>175345431</v>
       </c>
       <c r="J29">
-        <v>3.52</v>
+        <v>4.42</v>
       </c>
       <c r="K29">
-        <v>2.15</v>
+        <v>-0.33</v>
       </c>
       <c r="L29">
-        <v>0.25</v>
+        <v>-0.04</v>
       </c>
       <c r="M29">
-        <v>8.119999999999999</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>688548</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D30">
-        <v>11.82</v>
+        <v>11.86</v>
       </c>
       <c r="E30">
-        <v>11.88</v>
+        <v>11.65</v>
       </c>
       <c r="F30">
-        <v>11.98</v>
+        <v>11.97</v>
       </c>
       <c r="G30">
-        <v>11.44</v>
+        <v>11.58</v>
       </c>
       <c r="H30">
-        <v>201745</v>
+        <v>136980</v>
       </c>
       <c r="I30">
-        <v>237409404</v>
+        <v>161136753</v>
       </c>
       <c r="J30">
-        <v>4.54</v>
+        <v>3.27</v>
       </c>
       <c r="K30">
-        <v>-0.17</v>
+        <v>-2.43</v>
       </c>
       <c r="L30">
-        <v>-0.02</v>
+        <v>-0.29</v>
       </c>
       <c r="M30">
-        <v>8.289999999999999</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>688548</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <v>11.8</v>
       </c>
       <c r="E31">
-        <v>11.23</v>
+        <v>11.9</v>
       </c>
       <c r="F31">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="G31">
-        <v>11.13</v>
+        <v>11.64</v>
       </c>
       <c r="H31">
-        <v>279577</v>
+        <v>197553</v>
       </c>
       <c r="I31">
-        <v>318326639</v>
+        <v>234636643</v>
       </c>
       <c r="J31">
-        <v>6.48</v>
+        <v>3.52</v>
       </c>
       <c r="K31">
-        <v>-5.47</v>
+        <v>2.15</v>
       </c>
       <c r="L31">
-        <v>-0.65</v>
+        <v>0.25</v>
       </c>
       <c r="M31">
-        <v>11.49</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>688548</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D32">
-        <v>11.23</v>
+        <v>11.82</v>
       </c>
       <c r="E32">
-        <v>11.15</v>
+        <v>11.88</v>
       </c>
       <c r="F32">
-        <v>11.3</v>
+        <v>11.98</v>
       </c>
       <c r="G32">
-        <v>11.08</v>
+        <v>11.44</v>
       </c>
       <c r="H32">
-        <v>106422</v>
+        <v>201745</v>
       </c>
       <c r="I32">
-        <v>119020448</v>
+        <v>237409404</v>
       </c>
       <c r="J32">
-        <v>1.96</v>
+        <v>4.54</v>
       </c>
       <c r="K32">
-        <v>-0.71</v>
+        <v>-0.17</v>
       </c>
       <c r="L32">
-        <v>-0.08</v>
+        <v>-0.02</v>
       </c>
       <c r="M32">
-        <v>4.38</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>688548</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D33">
+        <v>11.8</v>
+      </c>
+      <c r="E33">
+        <v>11.23</v>
+      </c>
+      <c r="F33">
+        <v>11.9</v>
+      </c>
+      <c r="G33">
         <v>11.13</v>
       </c>
-      <c r="E33">
-        <v>10.88</v>
-      </c>
-      <c r="F33">
-        <v>11.28</v>
-      </c>
-      <c r="G33">
-        <v>10.81</v>
-      </c>
       <c r="H33">
-        <v>172237</v>
+        <v>279577</v>
       </c>
       <c r="I33">
-        <v>189304176</v>
+        <v>318326639</v>
       </c>
       <c r="J33">
-        <v>4.22</v>
+        <v>6.48</v>
       </c>
       <c r="K33">
-        <v>-2.42</v>
+        <v>-5.47</v>
       </c>
       <c r="L33">
-        <v>-0.27</v>
+        <v>-0.65</v>
       </c>
       <c r="M33">
-        <v>7.08</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>688548</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D34">
-        <v>10.9</v>
+        <v>11.23</v>
       </c>
       <c r="E34">
-        <v>10.91</v>
+        <v>11.15</v>
       </c>
       <c r="F34">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="G34">
-        <v>10.9</v>
+        <v>11.08</v>
       </c>
       <c r="H34">
-        <v>142148</v>
+        <v>106422</v>
       </c>
       <c r="I34">
-        <v>157044177</v>
+        <v>119020448</v>
       </c>
       <c r="J34">
-        <v>2.76</v>
+        <v>1.96</v>
       </c>
       <c r="K34">
-        <v>0.28</v>
+        <v>-0.71</v>
       </c>
       <c r="L34">
-        <v>0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="M34">
-        <v>5.84</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>688548</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>10.99</v>
+        <v>11.13</v>
       </c>
       <c r="E35">
-        <v>10.93</v>
+        <v>10.88</v>
       </c>
       <c r="F35">
-        <v>11.18</v>
+        <v>11.28</v>
       </c>
       <c r="G35">
-        <v>10.89</v>
+        <v>10.81</v>
       </c>
       <c r="H35">
-        <v>125164</v>
+        <v>172237</v>
       </c>
       <c r="I35">
-        <v>137786164</v>
+        <v>189304176</v>
       </c>
       <c r="J35">
-        <v>2.66</v>
+        <v>4.22</v>
       </c>
       <c r="K35">
-        <v>0.18</v>
+        <v>-2.42</v>
       </c>
       <c r="L35">
-        <v>0.02</v>
+        <v>-0.27</v>
       </c>
       <c r="M35">
-        <v>5.15</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>688548</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>10.98</v>
+        <v>10.9</v>
       </c>
       <c r="E36">
-        <v>10.81</v>
+        <v>10.91</v>
       </c>
       <c r="F36">
-        <v>11.09</v>
+        <v>11.2</v>
       </c>
       <c r="G36">
-        <v>10.73</v>
+        <v>10.9</v>
       </c>
       <c r="H36">
-        <v>124955</v>
+        <v>142148</v>
       </c>
       <c r="I36">
-        <v>136116068</v>
+        <v>157044177</v>
       </c>
       <c r="J36">
-        <v>3.29</v>
+        <v>2.76</v>
       </c>
       <c r="K36">
-        <v>-1.1</v>
+        <v>0.28</v>
       </c>
       <c r="L36">
-        <v>-0.12</v>
+        <v>0.03</v>
       </c>
       <c r="M36">
-        <v>5.14</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>688548</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>10.83</v>
+        <v>10.99</v>
       </c>
       <c r="E37">
-        <v>11.02</v>
+        <v>10.93</v>
       </c>
       <c r="F37">
-        <v>11.15</v>
+        <v>11.18</v>
       </c>
       <c r="G37">
-        <v>10.78</v>
+        <v>10.89</v>
       </c>
       <c r="H37">
-        <v>129588</v>
+        <v>125164</v>
       </c>
       <c r="I37">
-        <v>142286840</v>
+        <v>137786164</v>
       </c>
       <c r="J37">
-        <v>3.42</v>
+        <v>2.66</v>
       </c>
       <c r="K37">
-        <v>1.94</v>
+        <v>0.18</v>
       </c>
       <c r="L37">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="M37">
-        <v>5.33</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>688548</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D38">
+        <v>10.98</v>
+      </c>
+      <c r="E38">
+        <v>10.81</v>
+      </c>
+      <c r="F38">
         <v>11.09</v>
       </c>
-      <c r="E38">
-        <v>11.21</v>
-      </c>
-      <c r="F38">
-        <v>11.29</v>
-      </c>
       <c r="G38">
-        <v>10.93</v>
+        <v>10.73</v>
       </c>
       <c r="H38">
-        <v>148741</v>
+        <v>124955</v>
       </c>
       <c r="I38">
-        <v>165207703</v>
+        <v>136116068</v>
       </c>
       <c r="J38">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="K38">
-        <v>1.72</v>
+        <v>-1.1</v>
       </c>
       <c r="L38">
-        <v>0.19</v>
+        <v>-0.12</v>
       </c>
       <c r="M38">
-        <v>6.12</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>688548</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D39">
-        <v>11.12</v>
+        <v>10.83</v>
       </c>
       <c r="E39">
-        <v>12.02</v>
+        <v>11.02</v>
       </c>
       <c r="F39">
-        <v>12.05</v>
+        <v>11.15</v>
       </c>
       <c r="G39">
-        <v>11.1</v>
+        <v>10.78</v>
       </c>
       <c r="H39">
-        <v>316102</v>
+        <v>129588</v>
       </c>
       <c r="I39">
-        <v>370027496</v>
+        <v>142286840</v>
       </c>
       <c r="J39">
-        <v>8.470000000000001</v>
+        <v>3.42</v>
       </c>
       <c r="K39">
-        <v>7.23</v>
+        <v>1.94</v>
       </c>
       <c r="L39">
-        <v>0.8100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>688548</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>12.32</v>
+        <v>11.09</v>
       </c>
       <c r="E40">
-        <v>12.21</v>
+        <v>11.21</v>
       </c>
       <c r="F40">
-        <v>12.66</v>
+        <v>11.29</v>
       </c>
       <c r="G40">
-        <v>11.97</v>
+        <v>10.93</v>
       </c>
       <c r="H40">
-        <v>262848</v>
+        <v>148741</v>
       </c>
       <c r="I40">
-        <v>323108239</v>
+        <v>165207703</v>
       </c>
       <c r="J40">
-        <v>5.74</v>
+        <v>3.27</v>
       </c>
       <c r="K40">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="L40">
         <v>0.19</v>
       </c>
       <c r="M40">
-        <v>10.81</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>688548</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>11.12</v>
+      </c>
+      <c r="E41">
+        <v>12.02</v>
+      </c>
+      <c r="F41">
+        <v>12.05</v>
+      </c>
+      <c r="G41">
+        <v>11.1</v>
+      </c>
+      <c r="H41">
+        <v>316102</v>
+      </c>
+      <c r="I41">
+        <v>370027496</v>
+      </c>
+      <c r="J41">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="K41">
+        <v>7.23</v>
+      </c>
+      <c r="L41">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M41">
         <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41">
-        <v>12.16</v>
-      </c>
-      <c r="E41">
-        <v>12.36</v>
-      </c>
-      <c r="F41">
-        <v>12.42</v>
-      </c>
-      <c r="G41">
-        <v>11.61</v>
-      </c>
-      <c r="H41">
-        <v>271374</v>
-      </c>
-      <c r="I41">
-        <v>326205677</v>
-      </c>
-      <c r="J41">
-        <v>6.63</v>
-      </c>
-      <c r="K41">
-        <v>1.23</v>
-      </c>
-      <c r="L41">
-        <v>0.15</v>
-      </c>
-      <c r="M41">
-        <v>11.16</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>688548</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D42">
-        <v>12.22</v>
+        <v>12.32</v>
       </c>
       <c r="E42">
-        <v>11.96</v>
+        <v>12.21</v>
       </c>
       <c r="F42">
-        <v>12.29</v>
+        <v>12.66</v>
       </c>
       <c r="G42">
-        <v>11.92</v>
+        <v>11.97</v>
       </c>
       <c r="H42">
-        <v>141050</v>
+        <v>262848</v>
       </c>
       <c r="I42">
-        <v>170259707</v>
+        <v>323108239</v>
       </c>
       <c r="J42">
-        <v>2.99</v>
+        <v>5.74</v>
       </c>
       <c r="K42">
-        <v>-3.24</v>
+        <v>1.58</v>
       </c>
       <c r="L42">
-        <v>-0.4</v>
+        <v>0.19</v>
       </c>
       <c r="M42">
-        <v>5.8</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>688548</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D43">
-        <v>11.88</v>
+        <v>12.16</v>
       </c>
       <c r="E43">
-        <v>12.1</v>
+        <v>12.36</v>
       </c>
       <c r="F43">
-        <v>12.39</v>
+        <v>12.42</v>
       </c>
       <c r="G43">
-        <v>11.81</v>
+        <v>11.61</v>
       </c>
       <c r="H43">
-        <v>154404</v>
+        <v>271374</v>
       </c>
       <c r="I43">
-        <v>187269093</v>
+        <v>326205677</v>
       </c>
       <c r="J43">
-        <v>4.85</v>
+        <v>6.63</v>
       </c>
       <c r="K43">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="L43">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="M43">
-        <v>6.35</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>688548</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D44">
-        <v>11.94</v>
+        <v>12.22</v>
       </c>
       <c r="E44">
-        <v>11.89</v>
+        <v>11.96</v>
       </c>
       <c r="F44">
-        <v>12.35</v>
+        <v>12.29</v>
       </c>
       <c r="G44">
-        <v>11.82</v>
+        <v>11.92</v>
       </c>
       <c r="H44">
-        <v>183300</v>
+        <v>141050</v>
       </c>
       <c r="I44">
-        <v>221035393</v>
+        <v>170259707</v>
       </c>
       <c r="J44">
-        <v>4.38</v>
+        <v>2.99</v>
       </c>
       <c r="K44">
-        <v>-1.74</v>
+        <v>-3.24</v>
       </c>
       <c r="L44">
-        <v>-0.21</v>
+        <v>-0.4</v>
       </c>
       <c r="M44">
-        <v>7.54</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>688548</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D45">
-        <v>11.94</v>
+        <v>11.88</v>
       </c>
       <c r="E45">
-        <v>11.45</v>
+        <v>12.1</v>
       </c>
       <c r="F45">
-        <v>12</v>
+        <v>12.39</v>
       </c>
       <c r="G45">
-        <v>11.17</v>
+        <v>11.81</v>
       </c>
       <c r="H45">
-        <v>149745</v>
+        <v>154404</v>
       </c>
       <c r="I45">
-        <v>173090470</v>
+        <v>187269093</v>
       </c>
       <c r="J45">
-        <v>6.98</v>
+        <v>4.85</v>
       </c>
       <c r="K45">
-        <v>-3.7</v>
+        <v>1.17</v>
       </c>
       <c r="L45">
-        <v>-0.44</v>
+        <v>0.14</v>
       </c>
       <c r="M45">
-        <v>6.16</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>688548</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D46">
-        <v>11.5</v>
+        <v>11.94</v>
       </c>
       <c r="E46">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="F46">
-        <v>12.05</v>
+        <v>12.35</v>
       </c>
       <c r="G46">
-        <v>11.27</v>
+        <v>11.82</v>
       </c>
       <c r="H46">
-        <v>160878</v>
+        <v>183300</v>
       </c>
       <c r="I46">
-        <v>189957498</v>
+        <v>221035393</v>
       </c>
       <c r="J46">
-        <v>6.81</v>
+        <v>4.38</v>
       </c>
       <c r="K46">
-        <v>3.93</v>
+        <v>-1.74</v>
       </c>
       <c r="L46">
-        <v>0.45</v>
+        <v>-0.21</v>
       </c>
       <c r="M46">
-        <v>6.61</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>688548</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D47">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="E47">
-        <v>11.73</v>
+        <v>11.45</v>
       </c>
       <c r="F47">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="G47">
-        <v>11.56</v>
+        <v>11.17</v>
       </c>
       <c r="H47">
-        <v>158891</v>
+        <v>149745</v>
       </c>
       <c r="I47">
-        <v>185928022</v>
+        <v>173090470</v>
       </c>
       <c r="J47">
-        <v>4.12</v>
+        <v>6.98</v>
       </c>
       <c r="K47">
-        <v>-1.43</v>
+        <v>-3.7</v>
       </c>
       <c r="L47">
-        <v>-0.17</v>
+        <v>-0.44</v>
       </c>
       <c r="M47">
-        <v>6.53</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>688548</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D48">
-        <v>11.66</v>
+        <v>11.5</v>
       </c>
       <c r="E48">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="F48">
-        <v>11.78</v>
+        <v>12.05</v>
       </c>
       <c r="G48">
-        <v>11.3</v>
+        <v>11.27</v>
       </c>
       <c r="H48">
-        <v>144398</v>
+        <v>160878</v>
       </c>
       <c r="I48">
-        <v>166546835</v>
+        <v>189957498</v>
       </c>
       <c r="J48">
-        <v>4.09</v>
+        <v>6.81</v>
       </c>
       <c r="K48">
-        <v>-1.11</v>
+        <v>3.93</v>
       </c>
       <c r="L48">
-        <v>-0.13</v>
+        <v>0.45</v>
       </c>
       <c r="M48">
-        <v>5.94</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>688548</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D49">
-        <v>11.83</v>
+        <v>11.97</v>
       </c>
       <c r="E49">
-        <v>12.63</v>
+        <v>11.73</v>
       </c>
       <c r="F49">
-        <v>13</v>
+        <v>12.05</v>
       </c>
       <c r="G49">
-        <v>11.83</v>
+        <v>11.56</v>
       </c>
       <c r="H49">
-        <v>307808</v>
+        <v>158891</v>
       </c>
       <c r="I49">
-        <v>382959196</v>
+        <v>185928022</v>
       </c>
       <c r="J49">
-        <v>10.09</v>
+        <v>4.12</v>
       </c>
       <c r="K49">
-        <v>8.880000000000001</v>
+        <v>-1.43</v>
       </c>
       <c r="L49">
-        <v>1.03</v>
+        <v>-0.17</v>
       </c>
       <c r="M49">
-        <v>12.66</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>688548</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D50">
-        <v>12.88</v>
+        <v>11.66</v>
       </c>
       <c r="E50">
-        <v>12.57</v>
+        <v>11.6</v>
       </c>
       <c r="F50">
-        <v>12.93</v>
+        <v>11.78</v>
       </c>
       <c r="G50">
-        <v>12.49</v>
+        <v>11.3</v>
       </c>
       <c r="H50">
-        <v>207673</v>
+        <v>144398</v>
       </c>
       <c r="I50">
-        <v>262966256</v>
+        <v>166546835</v>
       </c>
       <c r="J50">
-        <v>3.48</v>
+        <v>4.09</v>
       </c>
       <c r="K50">
-        <v>-0.48</v>
+        <v>-1.11</v>
       </c>
       <c r="L50">
-        <v>-0.06</v>
+        <v>-0.13</v>
       </c>
       <c r="M50">
-        <v>8.539999999999999</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>688548</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51">
+        <v>11.83</v>
+      </c>
+      <c r="E51">
+        <v>12.63</v>
+      </c>
+      <c r="F51">
         <v>13</v>
       </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51">
-        <v>13.34</v>
-      </c>
-      <c r="E51">
-        <v>12.98</v>
-      </c>
-      <c r="F51">
-        <v>13.7</v>
-      </c>
       <c r="G51">
-        <v>12.72</v>
+        <v>11.83</v>
       </c>
       <c r="H51">
-        <v>318648</v>
+        <v>307808</v>
       </c>
       <c r="I51">
-        <v>419127514</v>
+        <v>382959196</v>
       </c>
       <c r="J51">
-        <v>7.8</v>
+        <v>10.09</v>
       </c>
       <c r="K51">
-        <v>3.26</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="L51">
-        <v>0.41</v>
+        <v>1.03</v>
       </c>
       <c r="M51">
-        <v>13.1</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>688548</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D52">
-        <v>13.02</v>
+        <v>12.88</v>
       </c>
       <c r="E52">
-        <v>12.66</v>
+        <v>12.57</v>
       </c>
       <c r="F52">
-        <v>13.5</v>
+        <v>12.93</v>
       </c>
       <c r="G52">
-        <v>12.66</v>
+        <v>12.49</v>
       </c>
       <c r="H52">
-        <v>161128</v>
+        <v>207673</v>
       </c>
       <c r="I52">
-        <v>208800476</v>
+        <v>262966256</v>
       </c>
       <c r="J52">
-        <v>6.47</v>
+        <v>3.48</v>
       </c>
       <c r="K52">
-        <v>-2.47</v>
+        <v>-0.48</v>
       </c>
       <c r="L52">
-        <v>-0.32</v>
+        <v>-0.06</v>
       </c>
       <c r="M52">
-        <v>6.62</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>688548</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D53">
-        <v>12.73</v>
+        <v>13.34</v>
       </c>
       <c r="E53">
-        <v>12.4</v>
+        <v>12.98</v>
       </c>
       <c r="F53">
-        <v>12.85</v>
+        <v>13.7</v>
       </c>
       <c r="G53">
-        <v>12.36</v>
+        <v>12.72</v>
       </c>
       <c r="H53">
-        <v>151285</v>
+        <v>318648</v>
       </c>
       <c r="I53">
-        <v>189406371</v>
+        <v>419127514</v>
       </c>
       <c r="J53">
-        <v>3.87</v>
+        <v>7.8</v>
       </c>
       <c r="K53">
-        <v>-2.05</v>
+        <v>3.26</v>
       </c>
       <c r="L53">
-        <v>-0.26</v>
+        <v>0.41</v>
       </c>
       <c r="M53">
-        <v>6.22</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>688548</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D54">
+        <v>13.02</v>
+      </c>
+      <c r="E54">
+        <v>12.66</v>
+      </c>
+      <c r="F54">
+        <v>13.5</v>
+      </c>
+      <c r="G54">
+        <v>12.66</v>
+      </c>
+      <c r="H54">
+        <v>161128</v>
+      </c>
+      <c r="I54">
+        <v>208800476</v>
+      </c>
+      <c r="J54">
+        <v>6.47</v>
+      </c>
+      <c r="K54">
+        <v>-2.47</v>
+      </c>
+      <c r="L54">
+        <v>-0.32</v>
+      </c>
+      <c r="M54">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>688548</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55">
+        <v>12.73</v>
+      </c>
+      <c r="E55">
+        <v>12.4</v>
+      </c>
+      <c r="F55">
+        <v>12.85</v>
+      </c>
+      <c r="G55">
+        <v>12.36</v>
+      </c>
+      <c r="H55">
+        <v>151285</v>
+      </c>
+      <c r="I55">
+        <v>189406371</v>
+      </c>
+      <c r="J55">
+        <v>3.87</v>
+      </c>
+      <c r="K55">
+        <v>-2.05</v>
+      </c>
+      <c r="L55">
+        <v>-0.26</v>
+      </c>
+      <c r="M55">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>688548</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56">
         <v>12.45</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>12.88</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>12.99</v>
       </c>
-      <c r="G54">
+      <c r="G56">
         <v>12.23</v>
       </c>
-      <c r="H54">
+      <c r="H56">
         <v>242954</v>
       </c>
-      <c r="I54">
+      <c r="I56">
         <v>306565802</v>
       </c>
-      <c r="J54">
+      <c r="J56">
         <v>6.13</v>
       </c>
-      <c r="K54">
+      <c r="K56">
         <v>3.87</v>
       </c>
-      <c r="L54">
+      <c r="L56">
         <v>0.48</v>
       </c>
-      <c r="M54">
+      <c r="M56">
         <v>9.99</v>
       </c>
     </row>
